--- a/MedicalLink/Templates/BC_41_ThongKeSuDungDichVuYeuCau_DSBN.xlsx
+++ b/MedicalLink/Templates/BC_41_ThongKeSuDungDichVuYeuCau_DSBN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -104,13 +104,25 @@
     <t>&amp;=[DATA1].YEAR</t>
   </si>
   <si>
-    <t>&amp;=&amp;=IF(I{r}=1,H{r},0)</t>
-  </si>
-  <si>
     <t>DANH SÁCH BỆNH NHÂN SỬ DỤNG DỊCH VỤ ĐT THANH TOÁN YÊU CẦU</t>
   </si>
   <si>
     <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>Quyển</t>
+  </si>
+  <si>
+    <t>Số hóa đơn</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BILLCODE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BILLGROUPCODE</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF(K{r}=1,J{r},0)</t>
   </si>
 </sst>
 </file>
@@ -323,6 +335,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,15 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,195 +734,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="E1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="G1" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="H1" s="33"/>
-      <c r="I1" s="17"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="G2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
       <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="32" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
       <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="24" t="s">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>26</v>
+      <c r="I4" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="18"/>
       <c r="J6" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>24</v>
+      <c r="L7" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13">
-        <f>SUM(J7:J7)</f>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
+        <f>SUM(L7:L7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="26" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:C7 F7:I7">
+  <conditionalFormatting sqref="A7:E7 H7:K7">
     <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
-      <formula>$I7=3</formula>
+      <formula>$K7=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
-      <formula>$I7=2</formula>
+      <formula>$K7=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
-      <formula>$I7=1</formula>
+      <formula>$K7=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="L7">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$I7=3</formula>
+      <formula>$K7=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$I7=2</formula>
+      <formula>$K7=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>$I7=1</formula>
+      <formula>$K7=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
+  <conditionalFormatting sqref="F7:G7">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$I7=3</formula>
+      <formula>$K7=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$I7=2</formula>
+      <formula>$K7=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I7=1</formula>
+      <formula>$K7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
